--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -813,7 +813,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -821,34 +821,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F331"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6168,7 +6169,7 @@
         <v>78</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
@@ -6188,7 +6189,7 @@
         <v>80</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268">
@@ -6228,7 +6229,7 @@
         <v>84</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270">
@@ -6628,7 +6629,7 @@
         <v>179</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -7474,273 +7475,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24F8633-C215-4B74-A119-07FE166260B7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{312718FC-3DAD-4146-AC7B-DEF3B82AF048}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40C31807-9DF8-499F-B9FB-E21EAE31A346}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="258">
   <si>
     <t>Sezione</t>
   </si>
@@ -86,6 +86,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>62-bis</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -624,6 +627,9 @@
   </si>
   <si>
     <t>legge</t>
+  </si>
+  <si>
+    <t>62-bis,184</t>
   </si>
   <si>
     <t>Regime patrimoniale - Atto Notarile</t>
@@ -838,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1473,60 +1479,60 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1534,19 +1540,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1554,19 +1560,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1634,19 +1640,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1654,59 +1660,59 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1794,59 +1800,59 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1934,99 +1940,99 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2094,79 +2100,79 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
@@ -2174,39 +2180,39 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2234,59 +2240,59 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2374,99 +2380,99 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2534,79 +2540,79 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>16</v>
@@ -2614,39 +2620,39 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2674,39 +2680,39 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>16</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>16</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
@@ -2754,299 +2760,299 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>16</v>
@@ -3054,19 +3060,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>16</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>16</v>
@@ -3094,19 +3100,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>16</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>16</v>
@@ -3134,19 +3140,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
@@ -3154,19 +3160,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>16</v>
@@ -3174,19 +3180,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>16</v>
@@ -3194,299 +3200,299 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>16</v>
@@ -3494,19 +3500,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>16</v>
@@ -3514,19 +3520,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>16</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -3554,19 +3560,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>16</v>
@@ -3594,19 +3600,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>16</v>
@@ -3614,19 +3620,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -3634,299 +3640,299 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>16</v>
@@ -3934,19 +3940,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>16</v>
@@ -3954,19 +3960,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>16</v>
@@ -3974,19 +3980,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>16</v>
@@ -3994,19 +4000,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>16</v>
@@ -4014,19 +4020,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>16</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>16</v>
@@ -4054,19 +4060,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>16</v>
@@ -4074,299 +4080,299 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>16</v>
@@ -4374,19 +4380,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>16</v>
@@ -4394,19 +4400,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>16</v>
@@ -4414,19 +4420,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
@@ -4434,39 +4440,39 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4474,19 +4480,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4494,19 +4500,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>9</v>
@@ -4514,19 +4520,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4534,19 +4540,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4554,19 +4560,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4574,19 +4580,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4594,19 +4600,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4614,19 +4620,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4634,19 +4640,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4654,19 +4660,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4674,19 +4680,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4694,19 +4700,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4714,19 +4720,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4734,19 +4740,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4754,19 +4760,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4774,19 +4780,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4794,19 +4800,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4814,19 +4820,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>165</v>
@@ -4843,10 +4849,10 @@
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4854,19 +4860,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>168</v>
@@ -4883,10 +4889,10 @@
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4894,19 +4900,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4914,19 +4920,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4934,39 +4940,39 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>18</v>
@@ -4974,39 +4980,39 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5014,99 +5020,99 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F209" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -5114,19 +5120,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5134,19 +5140,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5154,19 +5160,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5174,19 +5180,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5194,19 +5200,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5214,7 +5220,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>165</v>
@@ -5223,10 +5229,10 @@
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5234,19 +5240,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5254,7 +5260,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>168</v>
@@ -5263,10 +5269,10 @@
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5274,19 +5280,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5294,19 +5300,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5314,39 +5320,39 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>19</v>
@@ -5354,19 +5360,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>19</v>
@@ -5374,39 +5380,39 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5414,19 +5420,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5434,19 +5440,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5454,39 +5460,39 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="E232" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>19</v>
@@ -5494,19 +5500,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="E233" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>19</v>
@@ -5514,39 +5520,39 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="E235" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5554,19 +5560,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5574,19 +5580,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="E237" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5597,36 +5603,36 @@
         <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>20</v>
@@ -5634,19 +5640,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>20</v>
@@ -5654,39 +5660,39 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5694,19 +5700,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5714,19 +5720,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5734,39 +5740,39 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E245" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>21</v>
@@ -5774,19 +5780,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>21</v>
@@ -5794,39 +5800,39 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5834,19 +5840,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5854,19 +5860,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5874,39 +5880,39 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E252" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>22</v>
@@ -5914,19 +5920,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>22</v>
@@ -5934,39 +5940,39 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5974,19 +5980,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -5994,19 +6000,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6014,47 +6020,47 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E259" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="F260" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>207</v>
@@ -6063,18 +6069,18 @@
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>209</v>
@@ -6083,18 +6089,18 @@
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>211</v>
@@ -6103,30 +6109,30 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6134,7 +6140,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>216</v>
@@ -6143,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>217</v>
@@ -6154,19 +6160,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6174,59 +6180,59 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6234,39 +6240,39 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6274,19 +6280,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6294,19 +6300,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6314,19 +6320,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6334,19 +6340,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6354,19 +6360,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B276" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6374,19 +6380,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6394,19 +6400,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B278" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6414,19 +6420,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>9</v>
@@ -6434,19 +6440,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6454,19 +6460,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B281" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>9</v>
@@ -6474,19 +6480,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6494,19 +6500,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6514,19 +6520,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6534,19 +6540,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B285" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6554,19 +6560,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6574,19 +6580,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6594,19 +6600,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6614,19 +6620,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6634,39 +6640,39 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F290" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B291" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6674,19 +6680,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6694,19 +6700,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6714,19 +6720,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B294" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6734,10 +6740,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
@@ -6746,504 +6752,504 @@
         <v>221</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F297" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B298" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F298" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F299" s="2" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F300" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E301" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F301" s="2" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F302" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F304" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F305" s="2" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B306" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E306" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F306" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E307" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F307" s="2" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E308" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F308" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F309" s="2" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F310" s="2" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F311" s="2" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B312" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F312" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F313" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F314" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F315" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F316" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F317" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E319" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E319" s="2" t="s">
+      <c r="F319" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>233</v>
@@ -7254,16 +7260,16 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>235</v>
@@ -7274,7 +7280,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>236</v>
@@ -7283,7 +7289,7 @@
         <v>17</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>237</v>
@@ -7294,7 +7300,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>238</v>
@@ -7303,7 +7309,7 @@
         <v>17</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>239</v>
@@ -7314,7 +7320,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>240</v>
@@ -7323,7 +7329,7 @@
         <v>17</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>241</v>
@@ -7334,7 +7340,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>242</v>
@@ -7343,7 +7349,7 @@
         <v>17</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>243</v>
@@ -7354,7 +7360,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>244</v>
@@ -7363,7 +7369,7 @@
         <v>17</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>245</v>
@@ -7374,7 +7380,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>246</v>
@@ -7383,7 +7389,7 @@
         <v>17</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>247</v>
@@ -7394,7 +7400,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>248</v>
@@ -7403,7 +7409,7 @@
         <v>17</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>249</v>
@@ -7414,7 +7420,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>250</v>
@@ -7423,7 +7429,7 @@
         <v>17</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>251</v>
@@ -7434,7 +7440,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>252</v>
@@ -7443,7 +7449,7 @@
         <v>17</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>253</v>
@@ -7454,7 +7460,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>254</v>
@@ -7463,12 +7469,32 @@
         <v>17</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F331" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -6295,7 +6295,7 @@
         <v>89</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273">
@@ -6335,7 +6335,7 @@
         <v>93</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275">
@@ -6375,7 +6375,7 @@
         <v>97</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="277">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="271">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,27 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
+    <t>Copia interale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -786,6 +807,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -844,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1000,13 +1039,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1020,10 +1059,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1040,10 +1079,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1060,10 +1099,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1080,10 +1119,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1100,10 +1139,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1120,10 +1159,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1140,13 +1179,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1160,7 +1199,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1180,7 +1219,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1200,7 +1239,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
@@ -1220,7 +1259,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
@@ -1240,7 +1279,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -1260,7 +1299,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1280,7 +1319,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>31</v>
@@ -1300,7 +1339,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1320,7 +1359,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -1340,7 +1379,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
@@ -1360,7 +1399,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
@@ -1380,7 +1419,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -1400,7 +1439,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
@@ -1420,7 +1459,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
@@ -1440,7 +1479,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>39</v>
@@ -1460,7 +1499,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>40</v>
@@ -1480,7 +1519,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>41</v>
@@ -1499,40 +1538,40 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1579,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1560,19 +1599,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1580,19 +1619,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1600,19 +1639,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1620,59 +1659,59 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1680,39 +1719,39 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1759,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1740,19 +1779,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1760,19 +1799,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1780,19 +1819,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1800,19 +1839,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1820,39 +1859,39 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1860,19 +1899,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1880,19 +1919,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1900,19 +1939,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1920,19 +1959,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1940,19 +1979,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1960,39 +1999,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2000,39 +2039,39 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2040,19 +2079,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2060,19 +2099,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2080,19 +2119,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2100,119 +2139,119 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2220,19 +2259,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2240,19 +2279,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2260,39 +2299,39 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2300,59 +2339,59 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2360,19 +2399,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2380,19 +2419,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2400,39 +2439,39 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2440,39 +2479,39 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2480,19 +2519,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2500,19 +2539,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2520,19 +2559,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2540,119 +2579,119 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2660,19 +2699,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2680,19 +2719,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2700,99 +2739,99 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2800,39 +2839,39 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2840,1659 +2879,1659 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4500,119 +4539,119 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4620,19 +4659,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4640,19 +4679,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4660,19 +4699,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4680,19 +4719,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4700,19 +4739,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4720,19 +4759,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4740,19 +4779,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4760,19 +4799,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4780,19 +4819,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4800,19 +4839,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4820,19 +4859,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4840,19 +4879,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4860,19 +4899,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4880,19 +4919,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4900,19 +4939,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4920,19 +4959,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4940,19 +4979,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4960,59 +4999,59 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5020,19 +5059,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5040,39 +5079,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5080,79 +5119,79 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5160,19 +5199,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5180,39 +5219,39 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5220,39 +5259,39 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5260,19 +5299,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5280,19 +5319,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5300,19 +5339,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5320,19 +5359,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5340,79 +5379,79 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5420,19 +5459,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5440,19 +5479,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5460,19 +5499,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5480,79 +5519,79 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5560,19 +5599,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5580,19 +5619,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5600,19 +5639,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5620,79 +5659,79 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5700,19 +5739,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5720,19 +5759,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5740,19 +5779,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5760,79 +5799,79 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5840,19 +5879,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5860,19 +5899,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5880,19 +5919,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5900,79 +5939,79 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -5980,19 +6019,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -6000,19 +6039,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6020,19 +6059,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6040,99 +6079,99 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6140,19 +6179,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6160,19 +6199,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6180,99 +6219,99 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F268" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6280,39 +6319,39 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6320,99 +6359,99 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6420,39 +6459,39 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6460,39 +6499,39 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6500,39 +6539,39 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6540,19 +6579,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6560,19 +6599,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6580,19 +6619,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6600,19 +6639,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6620,19 +6659,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6640,39 +6679,39 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6680,19 +6719,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6700,19 +6739,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6720,19 +6759,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6740,19 +6779,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6763,19 +6802,19 @@
         <v>222</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
@@ -6783,19 +6822,19 @@
         <v>222</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298">
@@ -6803,19 +6842,19 @@
         <v>222</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299">
@@ -6823,19 +6862,19 @@
         <v>222</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
@@ -6843,16 +6882,16 @@
         <v>222</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6863,19 +6902,19 @@
         <v>222</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
@@ -6883,16 +6922,16 @@
         <v>222</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6900,459 +6939,459 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7360,39 +7399,39 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7400,19 +7439,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7420,19 +7459,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7440,19 +7479,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7460,19 +7499,19 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7480,21 +7519,201 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E332" s="2" t="s">
+      <c r="F335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F332" s="2" t="s">
+      <c r="C336" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F341" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -59,7 +59,7 @@
     <t>Decreto del tribunale per autorizzazione nonostante impedimento di divieto temporaneo di nuove nozze</t>
   </si>
   <si>
-    <t>Copia interale atto di nascita degli sposi</t>
+    <t>Copia integrale atto di nascita degli sposi</t>
   </si>
   <si>
     <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -4645,7 +4645,7 @@
         <v>140</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>141</v>
@@ -4665,7 +4665,7 @@
         <v>143</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>141</v>
@@ -4685,7 +4685,7 @@
         <v>145</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>141</v>
@@ -4705,7 +4705,7 @@
         <v>147</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>141</v>
@@ -4725,7 +4725,7 @@
         <v>149</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>141</v>
@@ -4745,7 +4745,7 @@
         <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>141</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="272">
   <si>
     <t>Sezione</t>
   </si>
@@ -218,6 +218,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -560,7 +563,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -1842,7 +1845,7 @@
         <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>24</v>
@@ -1851,7 +1854,7 @@
         <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1862,7 +1865,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -1871,7 +1874,7 @@
         <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
@@ -1882,7 +1885,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
@@ -1891,7 +1894,7 @@
         <v>61</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1899,10 +1902,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>24</v>
@@ -1911,7 +1914,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1919,10 +1922,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>24</v>
@@ -1931,7 +1934,7 @@
         <v>61</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1939,10 +1942,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>24</v>
@@ -1951,7 +1954,7 @@
         <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1959,10 +1962,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>24</v>
@@ -1971,7 +1974,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>24</v>
@@ -1991,7 +1994,7 @@
         <v>61</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1999,39 +2002,39 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2039,19 +2042,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2079,19 +2082,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2139,19 +2142,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>23</v>
@@ -2159,19 +2162,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2179,19 +2182,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
@@ -2199,19 +2202,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2219,19 +2222,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2259,19 +2262,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2279,19 +2282,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2299,19 +2302,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>23</v>
@@ -2319,19 +2322,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2339,19 +2342,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>23</v>
@@ -2359,19 +2362,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>23</v>
@@ -2379,19 +2382,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2399,19 +2402,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2419,19 +2422,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2439,39 +2442,39 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2479,19 +2482,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2499,19 +2502,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2519,19 +2522,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2539,19 +2542,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>23</v>
@@ -2599,19 +2602,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2619,19 +2622,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>23</v>
@@ -2639,19 +2642,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2659,19 +2662,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2679,19 +2682,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2699,19 +2702,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2739,19 +2742,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>23</v>
@@ -2759,19 +2762,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2779,19 +2782,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>23</v>
@@ -2799,19 +2802,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>23</v>
@@ -2819,19 +2822,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2839,19 +2842,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2859,19 +2862,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2879,19 +2882,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>23</v>
@@ -2899,19 +2902,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>23</v>
@@ -2919,19 +2922,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>23</v>
@@ -2939,19 +2942,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>23</v>
@@ -2959,19 +2962,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2979,19 +2982,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>23</v>
@@ -2999,19 +3002,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -3019,19 +3022,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>23</v>
@@ -3039,19 +3042,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3059,19 +3062,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>23</v>
@@ -3079,19 +3082,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3099,19 +3102,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>23</v>
@@ -3119,19 +3122,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3139,19 +3142,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>23</v>
@@ -3159,19 +3162,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3179,19 +3182,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>23</v>
@@ -3199,19 +3202,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3219,19 +3222,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>23</v>
@@ -3239,19 +3242,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3259,19 +3262,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>23</v>
@@ -3279,19 +3282,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>23</v>
@@ -3299,19 +3302,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>23</v>
@@ -3319,19 +3322,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>23</v>
@@ -3339,19 +3342,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>23</v>
@@ -3359,19 +3362,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>23</v>
@@ -3379,19 +3382,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>23</v>
@@ -3399,19 +3402,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3419,19 +3422,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>23</v>
@@ -3439,19 +3442,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3459,19 +3462,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>23</v>
@@ -3479,19 +3482,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>9</v>
@@ -3499,19 +3502,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>23</v>
@@ -3519,19 +3522,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3539,19 +3542,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>23</v>
@@ -3559,19 +3562,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3579,19 +3582,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>23</v>
@@ -3599,19 +3602,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>23</v>
@@ -3639,19 +3642,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3659,19 +3662,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>23</v>
@@ -3679,19 +3682,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>23</v>
@@ -3699,19 +3702,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>23</v>
@@ -3719,19 +3722,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>23</v>
@@ -3739,19 +3742,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>23</v>
@@ -3759,19 +3762,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>23</v>
@@ -3779,19 +3782,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>23</v>
@@ -3799,19 +3802,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>23</v>
@@ -3819,19 +3822,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>23</v>
@@ -3839,19 +3842,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3859,19 +3862,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>23</v>
@@ -3879,19 +3882,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3899,19 +3902,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>23</v>
@@ -3919,19 +3922,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3939,19 +3942,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>23</v>
@@ -3959,19 +3962,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3979,19 +3982,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>23</v>
@@ -3999,19 +4002,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -4019,19 +4022,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>23</v>
@@ -4039,19 +4042,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4059,19 +4062,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>23</v>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4099,19 +4102,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>23</v>
@@ -4119,19 +4122,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>23</v>
@@ -4139,19 +4142,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>23</v>
@@ -4159,19 +4162,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>23</v>
@@ -4179,19 +4182,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>23</v>
@@ -4199,19 +4202,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>23</v>
@@ -4219,19 +4222,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>23</v>
@@ -4239,19 +4242,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>23</v>
@@ -4259,19 +4262,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>23</v>
@@ -4279,19 +4282,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4299,19 +4302,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>23</v>
@@ -4319,19 +4322,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4339,19 +4342,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>23</v>
@@ -4359,19 +4362,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4379,19 +4382,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>23</v>
@@ -4399,19 +4402,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>9</v>
@@ -4419,19 +4422,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>23</v>
@@ -4439,19 +4442,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4459,19 +4462,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>23</v>
@@ -4479,19 +4482,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4499,19 +4502,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>23</v>
@@ -4519,19 +4522,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>9</v>
@@ -4539,19 +4542,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>23</v>
@@ -4559,19 +4562,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>23</v>
@@ -4579,19 +4582,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>23</v>
@@ -4599,19 +4602,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>23</v>
@@ -4619,19 +4622,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>23</v>
@@ -4639,19 +4642,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4659,19 +4662,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>9</v>
@@ -4679,19 +4682,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>9</v>
@@ -4699,19 +4702,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>9</v>
@@ -4719,19 +4722,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4739,19 +4742,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4759,10 +4762,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -4771,7 +4774,7 @@
         <v>61</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4779,19 +4782,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4799,19 +4802,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>9</v>
@@ -4819,19 +4822,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>9</v>
@@ -4839,19 +4842,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4859,19 +4862,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4879,19 +4882,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4899,19 +4902,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4919,19 +4922,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4939,19 +4942,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4959,19 +4962,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4979,19 +4982,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4999,19 +5002,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5019,16 +5022,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>52</v>
@@ -5039,19 +5042,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5059,16 +5062,16 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>54</v>
@@ -5079,19 +5082,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
@@ -5099,19 +5102,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -5119,19 +5122,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
@@ -5139,19 +5142,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>25</v>
@@ -5159,19 +5162,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>25</v>
@@ -5179,19 +5182,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5199,19 +5202,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5219,19 +5222,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>25</v>
@@ -5239,19 +5242,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>9</v>
@@ -5259,19 +5262,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>25</v>
@@ -5279,19 +5282,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>9</v>
@@ -5299,19 +5302,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5319,19 +5322,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>9</v>
@@ -5339,19 +5342,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5359,19 +5362,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>9</v>
@@ -5379,19 +5382,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5399,16 +5402,16 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>52</v>
@@ -5419,19 +5422,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5439,16 +5442,16 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>54</v>
@@ -5459,19 +5462,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5479,19 +5482,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5499,19 +5502,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5519,19 +5522,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>26</v>
@@ -5539,19 +5542,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>26</v>
@@ -5559,19 +5562,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>26</v>
@@ -5579,19 +5582,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5599,19 +5602,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5619,19 +5622,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5639,19 +5642,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5659,19 +5662,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E239" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>26</v>
@@ -5679,19 +5682,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>26</v>
@@ -5699,19 +5702,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E241" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>26</v>
@@ -5719,19 +5722,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E242" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5739,19 +5742,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E243" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5759,19 +5762,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E244" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5779,19 +5782,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E245" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5799,19 +5802,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>27</v>
@@ -5819,19 +5822,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>27</v>
@@ -5839,19 +5842,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>27</v>
@@ -5859,19 +5862,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5879,19 +5882,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5899,19 +5902,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5919,19 +5922,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5939,19 +5942,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>28</v>
@@ -5959,19 +5962,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>28</v>
@@ -5979,19 +5982,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>28</v>
@@ -5999,19 +6002,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -6019,19 +6022,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -6039,19 +6042,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6059,19 +6062,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6079,19 +6082,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -6099,19 +6102,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>29</v>
@@ -6119,19 +6122,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>29</v>
@@ -6139,19 +6142,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6159,19 +6162,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6179,19 +6182,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6199,19 +6202,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6219,39 +6222,39 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>32</v>
@@ -6259,19 +6262,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>32</v>
@@ -6279,19 +6282,19 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>32</v>
@@ -6299,19 +6302,19 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>9</v>
@@ -6319,19 +6322,19 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6339,19 +6342,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6359,19 +6362,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>30</v>
@@ -6379,19 +6382,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>30</v>
@@ -6399,19 +6402,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6419,19 +6422,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>30</v>
@@ -6439,19 +6442,19 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>9</v>
@@ -6459,19 +6462,19 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>30</v>
@@ -6479,19 +6482,19 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6499,19 +6502,19 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>30</v>
@@ -6519,19 +6522,19 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6539,19 +6542,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>30</v>
@@ -6559,19 +6562,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6579,19 +6582,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6599,19 +6602,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6619,19 +6622,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6639,19 +6642,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6659,19 +6662,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6679,19 +6682,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6699,19 +6702,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6719,19 +6722,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6739,19 +6742,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6759,19 +6762,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6779,19 +6782,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6799,19 +6802,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6819,19 +6822,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>30</v>
@@ -6839,19 +6842,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6859,19 +6862,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6879,19 +6882,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6899,19 +6902,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6919,19 +6922,19 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -6939,99 +6942,99 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7039,39 +7042,39 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7079,39 +7082,39 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7119,39 +7122,39 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7159,39 +7162,39 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7199,39 +7202,39 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7239,39 +7242,39 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7279,110 +7282,110 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>24</v>
@@ -7391,7 +7394,7 @@
         <v>61</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7399,10 +7402,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -7411,18 +7414,18 @@
         <v>61</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>24</v>
@@ -7431,7 +7434,7 @@
         <v>61</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7439,10 +7442,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -7451,7 +7454,7 @@
         <v>61</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7459,10 +7462,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>24</v>
@@ -7471,7 +7474,7 @@
         <v>51</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7479,10 +7482,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>24</v>
@@ -7491,7 +7494,7 @@
         <v>61</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7499,10 +7502,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>24</v>
@@ -7511,7 +7514,7 @@
         <v>61</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7519,10 +7522,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>24</v>
@@ -7531,7 +7534,7 @@
         <v>61</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
@@ -7539,10 +7542,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>24</v>
@@ -7551,7 +7554,7 @@
         <v>61</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>9</v>
@@ -7559,10 +7562,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>24</v>
@@ -7571,7 +7574,7 @@
         <v>61</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>9</v>
@@ -7579,10 +7582,10 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>24</v>
@@ -7591,7 +7594,7 @@
         <v>61</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7599,10 +7602,10 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>24</v>
@@ -7611,7 +7614,7 @@
         <v>61</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>9</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>24</v>
@@ -7631,7 +7634,7 @@
         <v>61</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -7639,19 +7642,19 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>9</v>
@@ -7659,19 +7662,19 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -7679,19 +7682,19 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -7699,19 +7702,19 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="315">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -755,31 +755,25 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -7335,7 +7329,7 @@
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="275">
@@ -7358,7 +7352,7 @@
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276">
@@ -7381,7 +7375,7 @@
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="277">
@@ -7404,7 +7398,7 @@
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278">
@@ -7427,7 +7421,7 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="279">
@@ -7450,7 +7444,7 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280">
@@ -7473,7 +7467,7 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="281">
@@ -7496,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282">
@@ -7519,7 +7513,7 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="283">
@@ -7542,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="284">
@@ -7565,7 +7559,7 @@
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="285">
@@ -7588,7 +7582,7 @@
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="286">
@@ -7611,7 +7605,7 @@
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="287">
@@ -7634,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288">
@@ -7657,7 +7651,7 @@
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289">
@@ -7680,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="290">
@@ -7703,7 +7697,7 @@
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="291">
@@ -7726,7 +7720,7 @@
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="292">
@@ -7749,7 +7743,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293">
@@ -7772,7 +7766,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="294">
@@ -7795,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="295">
@@ -7818,12 +7812,12 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>79</v>
@@ -7832,7 +7826,7 @@
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>98</v>
@@ -7841,12 +7835,12 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>81</v>
@@ -7855,7 +7849,7 @@
         <v>31</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>100</v>
@@ -7864,12 +7858,12 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>101</v>
@@ -7878,7 +7872,7 @@
         <v>31</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>102</v>
@@ -7887,12 +7881,12 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>103</v>
@@ -7901,7 +7895,7 @@
         <v>31</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>104</v>
@@ -7910,12 +7904,12 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>105</v>
@@ -7924,7 +7918,7 @@
         <v>31</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>106</v>
@@ -7933,12 +7927,12 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>107</v>
@@ -7947,7 +7941,7 @@
         <v>31</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>108</v>
@@ -7956,12 +7950,12 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>109</v>
@@ -7970,7 +7964,7 @@
         <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>110</v>
@@ -7979,12 +7973,12 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>111</v>
@@ -7993,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>112</v>
@@ -8002,12 +7996,12 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>113</v>
@@ -8016,7 +8010,7 @@
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>114</v>
@@ -8025,12 +8019,12 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>115</v>
@@ -8039,7 +8033,7 @@
         <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>116</v>
@@ -8048,12 +8042,12 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>117</v>
@@ -8062,7 +8056,7 @@
         <v>31</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>118</v>
@@ -8071,12 +8065,12 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>119</v>
@@ -8085,7 +8079,7 @@
         <v>31</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>120</v>
@@ -8094,12 +8088,12 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>121</v>
@@ -8108,7 +8102,7 @@
         <v>31</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>122</v>
@@ -8117,12 +8111,12 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>123</v>
@@ -8131,7 +8125,7 @@
         <v>31</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>124</v>
@@ -8140,12 +8134,12 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>125</v>
@@ -8154,7 +8148,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>126</v>
@@ -8163,12 +8157,12 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>127</v>
@@ -8177,7 +8171,7 @@
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>128</v>
@@ -8186,12 +8180,12 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>129</v>
@@ -8200,7 +8194,7 @@
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>130</v>
@@ -8209,12 +8203,12 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>131</v>
@@ -8223,7 +8217,7 @@
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>132</v>
@@ -8232,12 +8226,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>133</v>
@@ -8246,7 +8240,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>134</v>
@@ -8255,12 +8249,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>135</v>
@@ -8269,7 +8263,7 @@
         <v>31</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>136</v>
@@ -8278,12 +8272,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>137</v>
@@ -8292,7 +8286,7 @@
         <v>31</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>138</v>
@@ -8301,12 +8295,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>139</v>
@@ -8315,7 +8309,7 @@
         <v>31</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>140</v>
@@ -8324,12 +8318,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>79</v>
@@ -8338,7 +8332,7 @@
         <v>9</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>98</v>
@@ -8347,12 +8341,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>81</v>
@@ -8361,7 +8355,7 @@
         <v>31</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>100</v>
@@ -8370,12 +8364,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>101</v>
@@ -8384,7 +8378,7 @@
         <v>31</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>102</v>
@@ -8393,12 +8387,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>103</v>
@@ -8407,7 +8401,7 @@
         <v>31</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>104</v>
@@ -8416,12 +8410,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>105</v>
@@ -8430,7 +8424,7 @@
         <v>31</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>106</v>
@@ -8439,12 +8433,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>107</v>
@@ -8453,7 +8447,7 @@
         <v>31</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>108</v>
@@ -8462,12 +8456,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>109</v>
@@ -8476,7 +8470,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>110</v>
@@ -8485,12 +8479,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>111</v>
@@ -8499,7 +8493,7 @@
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>112</v>
@@ -8508,12 +8502,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>113</v>
@@ -8522,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>114</v>
@@ -8531,12 +8525,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>115</v>
@@ -8545,7 +8539,7 @@
         <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>116</v>
@@ -8554,12 +8548,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>117</v>
@@ -8568,7 +8562,7 @@
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>118</v>
@@ -8577,12 +8571,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>119</v>
@@ -8591,7 +8585,7 @@
         <v>31</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>120</v>
@@ -8600,12 +8594,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>121</v>
@@ -8614,7 +8608,7 @@
         <v>31</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>122</v>
@@ -8623,12 +8617,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>123</v>
@@ -8637,7 +8631,7 @@
         <v>31</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>124</v>
@@ -8646,12 +8640,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>125</v>
@@ -8660,7 +8654,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>126</v>
@@ -8669,12 +8663,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>127</v>
@@ -8683,7 +8677,7 @@
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>128</v>
@@ -8692,12 +8686,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>129</v>
@@ -8706,7 +8700,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>130</v>
@@ -8715,12 +8709,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>131</v>
@@ -8729,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>132</v>
@@ -8738,12 +8732,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>133</v>
@@ -8752,7 +8746,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>134</v>
@@ -8761,12 +8755,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>135</v>
@@ -8775,7 +8769,7 @@
         <v>31</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>136</v>
@@ -8784,12 +8778,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>137</v>
@@ -8798,7 +8792,7 @@
         <v>31</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>138</v>
@@ -8807,12 +8801,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>139</v>
@@ -8821,7 +8815,7 @@
         <v>31</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>140</v>
@@ -8830,12 +8824,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>79</v>
@@ -8844,7 +8838,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>98</v>
@@ -8853,12 +8847,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>81</v>
@@ -8867,7 +8861,7 @@
         <v>31</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>100</v>
@@ -8876,12 +8870,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>101</v>
@@ -8890,7 +8884,7 @@
         <v>31</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>102</v>
@@ -8899,12 +8893,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>103</v>
@@ -8913,7 +8907,7 @@
         <v>31</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>104</v>
@@ -8922,12 +8916,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>105</v>
@@ -8936,7 +8930,7 @@
         <v>31</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>106</v>
@@ -8945,12 +8939,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>107</v>
@@ -8959,7 +8953,7 @@
         <v>31</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>108</v>
@@ -8968,12 +8962,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>109</v>
@@ -8982,7 +8976,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>110</v>
@@ -8991,12 +8985,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>111</v>
@@ -9005,7 +8999,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>112</v>
@@ -9014,12 +9008,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>113</v>
@@ -9028,7 +9022,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>114</v>
@@ -9037,12 +9031,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>115</v>
@@ -9051,7 +9045,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>116</v>
@@ -9060,12 +9054,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>117</v>
@@ -9074,7 +9068,7 @@
         <v>31</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>118</v>
@@ -9083,12 +9077,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>119</v>
@@ -9097,7 +9091,7 @@
         <v>31</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>120</v>
@@ -9106,12 +9100,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>121</v>
@@ -9120,7 +9114,7 @@
         <v>31</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>122</v>
@@ -9129,12 +9123,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>123</v>
@@ -9143,7 +9137,7 @@
         <v>31</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>124</v>
@@ -9152,12 +9146,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>125</v>
@@ -9166,7 +9160,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>126</v>
@@ -9175,12 +9169,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>127</v>
@@ -9189,7 +9183,7 @@
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>128</v>
@@ -9198,12 +9192,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>129</v>
@@ -9212,7 +9206,7 @@
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>130</v>
@@ -9221,12 +9215,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>131</v>
@@ -9235,7 +9229,7 @@
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>132</v>
@@ -9244,12 +9238,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>133</v>
@@ -9258,7 +9252,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>134</v>
@@ -9267,12 +9261,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>135</v>
@@ -9281,7 +9275,7 @@
         <v>31</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>136</v>
@@ -9290,12 +9284,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>137</v>
@@ -9304,7 +9298,7 @@
         <v>31</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>138</v>
@@ -9313,12 +9307,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>139</v>
@@ -9327,7 +9321,7 @@
         <v>31</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>140</v>
@@ -9336,12 +9330,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>79</v>
@@ -9359,12 +9353,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>81</v>
@@ -9382,12 +9376,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>101</v>
@@ -9405,12 +9399,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>103</v>
@@ -9428,12 +9422,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>105</v>
@@ -9451,12 +9445,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>107</v>
@@ -9474,12 +9468,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>109</v>
@@ -9497,12 +9491,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>111</v>
@@ -9520,12 +9514,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>113</v>
@@ -9543,12 +9537,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>115</v>
@@ -9566,12 +9560,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>117</v>
@@ -9589,12 +9583,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>119</v>
@@ -9612,12 +9606,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>121</v>
@@ -9635,12 +9629,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>123</v>
@@ -9658,12 +9652,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>125</v>
@@ -9681,12 +9675,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>127</v>
@@ -9704,12 +9698,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>129</v>
@@ -9727,12 +9721,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>131</v>
@@ -9750,12 +9744,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>133</v>
@@ -9773,12 +9767,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>135</v>
@@ -9796,12 +9790,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>137</v>
@@ -9819,12 +9813,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>139</v>
@@ -9842,12 +9836,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>79</v>
@@ -9865,12 +9859,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>81</v>
@@ -9888,12 +9882,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>101</v>
@@ -9911,12 +9905,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>103</v>
@@ -9934,12 +9928,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>105</v>
@@ -9957,12 +9951,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>107</v>
@@ -9980,12 +9974,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>109</v>
@@ -10003,12 +9997,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>111</v>
@@ -10026,12 +10020,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>113</v>
@@ -10049,12 +10043,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>115</v>
@@ -10072,12 +10066,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>117</v>
@@ -10095,12 +10089,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>119</v>
@@ -10118,12 +10112,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>121</v>
@@ -10141,12 +10135,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>123</v>
@@ -10164,12 +10158,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>125</v>
@@ -10187,12 +10181,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>127</v>
@@ -10210,12 +10204,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>129</v>
@@ -10233,12 +10227,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>131</v>
@@ -10256,12 +10250,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>133</v>
@@ -10279,12 +10273,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>135</v>
@@ -10302,12 +10296,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>137</v>
@@ -10325,12 +10319,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>139</v>
@@ -10348,12 +10342,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>200</v>
@@ -10362,7 +10356,7 @@
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>202</v>
@@ -10371,12 +10365,12 @@
         <v>38</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>204</v>
@@ -10385,7 +10379,7 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>205</v>
@@ -10394,12 +10388,12 @@
         <v>38</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>206</v>
@@ -10408,7 +10402,7 @@
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>207</v>
@@ -10417,12 +10411,12 @@
         <v>38</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>208</v>
@@ -10431,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>209</v>
@@ -10440,12 +10434,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>210</v>
@@ -10454,7 +10448,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>211</v>
@@ -10463,12 +10457,12 @@
         <v>38</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>212</v>
@@ -10477,7 +10471,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>213</v>
@@ -10486,12 +10480,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>214</v>
@@ -10500,7 +10494,7 @@
         <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>215</v>
@@ -10509,12 +10503,12 @@
         <v>38</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>79</v>
@@ -10523,7 +10517,7 @@
         <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>98</v>
@@ -10532,12 +10526,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>81</v>
@@ -10546,7 +10540,7 @@
         <v>31</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>100</v>
@@ -10555,12 +10549,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>101</v>
@@ -10569,7 +10563,7 @@
         <v>31</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>102</v>
@@ -10578,12 +10572,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>103</v>
@@ -10592,7 +10586,7 @@
         <v>31</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>104</v>
@@ -10601,12 +10595,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>105</v>
@@ -10615,7 +10609,7 @@
         <v>31</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>106</v>
@@ -10624,12 +10618,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>107</v>
@@ -10638,7 +10632,7 @@
         <v>31</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>108</v>
@@ -10647,12 +10641,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>109</v>
@@ -10661,7 +10655,7 @@
         <v>9</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>110</v>
@@ -10670,12 +10664,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>111</v>
@@ -10684,7 +10678,7 @@
         <v>9</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>112</v>
@@ -10693,12 +10687,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>113</v>
@@ -10707,7 +10701,7 @@
         <v>9</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>114</v>
@@ -10716,12 +10710,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>115</v>
@@ -10730,7 +10724,7 @@
         <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>116</v>
@@ -10739,12 +10733,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>117</v>
@@ -10753,7 +10747,7 @@
         <v>31</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>118</v>
@@ -10762,12 +10756,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>119</v>
@@ -10776,7 +10770,7 @@
         <v>31</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>120</v>
@@ -10785,12 +10779,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>121</v>
@@ -10799,7 +10793,7 @@
         <v>31</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>122</v>
@@ -10808,12 +10802,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>123</v>
@@ -10822,7 +10816,7 @@
         <v>31</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>124</v>
@@ -10831,12 +10825,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>125</v>
@@ -10845,7 +10839,7 @@
         <v>9</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>126</v>
@@ -10854,12 +10848,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>127</v>
@@ -10868,7 +10862,7 @@
         <v>9</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>128</v>
@@ -10877,12 +10871,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>129</v>
@@ -10891,7 +10885,7 @@
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>130</v>
@@ -10900,12 +10894,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>131</v>
@@ -10914,7 +10908,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>132</v>
@@ -10923,12 +10917,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>133</v>
@@ -10937,7 +10931,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>134</v>
@@ -10946,12 +10940,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>135</v>
@@ -10960,7 +10954,7 @@
         <v>31</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>136</v>
@@ -10969,12 +10963,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>137</v>
@@ -10983,7 +10977,7 @@
         <v>31</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>138</v>
@@ -10992,12 +10986,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>139</v>
@@ -11006,7 +11000,7 @@
         <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>140</v>
@@ -11015,12 +11009,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>79</v>
@@ -11029,7 +11023,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>98</v>
@@ -11038,12 +11032,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>81</v>
@@ -11052,7 +11046,7 @@
         <v>31</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>100</v>
@@ -11061,12 +11055,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>101</v>
@@ -11075,7 +11069,7 @@
         <v>31</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>102</v>
@@ -11084,12 +11078,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>103</v>
@@ -11098,7 +11092,7 @@
         <v>31</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>104</v>
@@ -11107,12 +11101,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>105</v>
@@ -11121,7 +11115,7 @@
         <v>31</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>106</v>
@@ -11130,12 +11124,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>107</v>
@@ -11144,7 +11138,7 @@
         <v>31</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>108</v>
@@ -11153,12 +11147,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>109</v>
@@ -11167,7 +11161,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>110</v>
@@ -11176,12 +11170,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>111</v>
@@ -11190,7 +11184,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>112</v>
@@ -11199,12 +11193,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>113</v>
@@ -11213,7 +11207,7 @@
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>114</v>
@@ -11222,12 +11216,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>115</v>
@@ -11236,7 +11230,7 @@
         <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>116</v>
@@ -11245,12 +11239,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>117</v>
@@ -11259,7 +11253,7 @@
         <v>31</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>118</v>
@@ -11268,12 +11262,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>119</v>
@@ -11282,7 +11276,7 @@
         <v>31</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>120</v>
@@ -11291,12 +11285,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>121</v>
@@ -11305,7 +11299,7 @@
         <v>31</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>122</v>
@@ -11314,12 +11308,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>123</v>
@@ -11328,7 +11322,7 @@
         <v>31</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>124</v>
@@ -11337,12 +11331,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>125</v>
@@ -11351,7 +11345,7 @@
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>126</v>
@@ -11360,12 +11354,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>127</v>
@@ -11374,7 +11368,7 @@
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>128</v>
@@ -11383,12 +11377,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>129</v>
@@ -11397,7 +11391,7 @@
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>130</v>
@@ -11406,12 +11400,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>131</v>
@@ -11420,7 +11414,7 @@
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>132</v>
@@ -11429,12 +11423,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>133</v>
@@ -11443,7 +11437,7 @@
         <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>134</v>
@@ -11452,12 +11446,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>135</v>
@@ -11466,7 +11460,7 @@
         <v>31</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>136</v>
@@ -11475,12 +11469,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>137</v>
@@ -11489,7 +11483,7 @@
         <v>31</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>138</v>
@@ -11498,12 +11492,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>139</v>
@@ -11512,7 +11506,7 @@
         <v>31</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>140</v>
@@ -11521,12 +11515,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>200</v>
@@ -11535,7 +11529,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>202</v>
@@ -11544,12 +11538,12 @@
         <v>38</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>204</v>
@@ -11558,7 +11552,7 @@
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>205</v>
@@ -11567,12 +11561,12 @@
         <v>38</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>206</v>
@@ -11581,7 +11575,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>207</v>
@@ -11590,12 +11584,12 @@
         <v>38</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>208</v>
@@ -11604,7 +11598,7 @@
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>209</v>
@@ -11613,12 +11607,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>210</v>
@@ -11627,7 +11621,7 @@
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>211</v>
@@ -11636,12 +11630,12 @@
         <v>38</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>212</v>
@@ -11650,7 +11644,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>213</v>
@@ -11659,12 +11653,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>214</v>
@@ -11673,7 +11667,7 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>215</v>
@@ -11682,12 +11676,12 @@
         <v>38</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>79</v>
@@ -11696,21 +11690,21 @@
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>81</v>
@@ -11719,7 +11713,7 @@
         <v>31</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>100</v>
@@ -11728,12 +11722,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>101</v>
@@ -11742,7 +11736,7 @@
         <v>31</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>102</v>
@@ -11751,12 +11745,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>103</v>
@@ -11765,7 +11759,7 @@
         <v>31</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>104</v>
@@ -11774,12 +11768,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>105</v>
@@ -11788,7 +11782,7 @@
         <v>31</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>106</v>
@@ -11797,12 +11791,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>107</v>
@@ -11811,7 +11805,7 @@
         <v>31</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>108</v>
@@ -11820,12 +11814,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>109</v>
@@ -11834,7 +11828,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>110</v>
@@ -11843,12 +11837,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>111</v>
@@ -11857,21 +11851,21 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>113</v>
@@ -11880,7 +11874,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>114</v>
@@ -11889,12 +11883,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>115</v>
@@ -11903,21 +11897,21 @@
         <v>9</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>117</v>
@@ -11926,7 +11920,7 @@
         <v>31</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>118</v>
@@ -11935,12 +11929,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>119</v>
@@ -11949,7 +11943,7 @@
         <v>31</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>120</v>
@@ -11958,12 +11952,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>121</v>
@@ -11972,7 +11966,7 @@
         <v>31</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>122</v>
@@ -11981,12 +11975,12 @@
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>123</v>
@@ -11995,7 +11989,7 @@
         <v>31</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>124</v>
@@ -12004,12 +11998,12 @@
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>125</v>
@@ -12018,7 +12012,7 @@
         <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>126</v>
@@ -12027,12 +12021,12 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>127</v>
@@ -12041,21 +12035,21 @@
         <v>9</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>129</v>
@@ -12064,7 +12058,7 @@
         <v>9</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>130</v>
@@ -12073,12 +12067,12 @@
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>131</v>
@@ -12087,21 +12081,21 @@
         <v>9</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>133</v>
@@ -12110,21 +12104,21 @@
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>135</v>
@@ -12133,7 +12127,7 @@
         <v>31</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>136</v>
@@ -12142,12 +12136,12 @@
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>137</v>
@@ -12156,7 +12150,7 @@
         <v>31</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>138</v>
@@ -12165,12 +12159,12 @@
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>139</v>
@@ -12179,7 +12173,7 @@
         <v>31</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>140</v>
@@ -12188,15 +12182,15 @@
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>31</v>
@@ -12205,7 +12199,7 @@
         <v>70</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
@@ -12216,10 +12210,10 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>9</v>
@@ -12228,10 +12222,10 @@
         <v>70</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G487" s="2" t="s">
         <v>61</v>
@@ -12239,10 +12233,10 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>31</v>
@@ -12251,7 +12245,7 @@
         <v>70</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
@@ -12262,10 +12256,10 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>9</v>
@@ -12274,7 +12268,7 @@
         <v>70</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
@@ -12285,10 +12279,10 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>31</v>
@@ -12297,7 +12291,7 @@
         <v>59</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
@@ -12308,10 +12302,10 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>31</v>
@@ -12320,7 +12314,7 @@
         <v>70</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
@@ -12331,10 +12325,10 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>31</v>
@@ -12343,7 +12337,7 @@
         <v>70</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
@@ -12354,10 +12348,10 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>31</v>
@@ -12366,7 +12360,7 @@
         <v>70</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
@@ -12377,10 +12371,10 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>31</v>
@@ -12389,7 +12383,7 @@
         <v>70</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
@@ -12400,10 +12394,10 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>31</v>
@@ -12412,7 +12406,7 @@
         <v>70</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
@@ -12423,10 +12417,10 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>31</v>
@@ -12435,7 +12429,7 @@
         <v>70</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
@@ -12446,10 +12440,10 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>31</v>
@@ -12458,7 +12452,7 @@
         <v>70</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
@@ -12469,10 +12463,10 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>31</v>
@@ -12481,7 +12475,7 @@
         <v>70</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
@@ -12492,10 +12486,10 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>31</v>
@@ -12504,7 +12498,7 @@
         <v>233</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
@@ -12515,10 +12509,10 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>31</v>
@@ -12527,7 +12521,7 @@
         <v>233</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
@@ -12538,48 +12532,48 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D501" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="E501" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C501" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D501" s="2" t="s">
+      <c r="F501" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="E501" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F501" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G501" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D502" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B502" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D502" s="2" t="s">
+      <c r="E502" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="E502" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F502" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G502" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -2169,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>80</v>
@@ -2178,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>61</v>
@@ -2215,7 +2215,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>80</v>
@@ -2238,7 +2238,7 @@
         <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>80</v>
@@ -2261,7 +2261,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>80</v>
@@ -2284,7 +2284,7 @@
         <v>90</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>80</v>
@@ -2399,7 +2399,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>80</v>
@@ -2422,7 +2422,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>80</v>
@@ -2445,7 +2445,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>80</v>
@@ -2468,7 +2468,7 @@
         <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>80</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -4153,7 +4153,7 @@
         <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>145</v>
@@ -4176,7 +4176,7 @@
         <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>145</v>
@@ -4185,7 +4185,7 @@
         <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>146</v>
@@ -4682,7 +4682,7 @@
         <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>148</v>
@@ -4705,7 +4705,7 @@
         <v>104</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>148</v>
@@ -4714,7 +4714,7 @@
         <v>105</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>149</v>
@@ -5211,7 +5211,7 @@
         <v>102</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>151</v>
@@ -5234,7 +5234,7 @@
         <v>104</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>151</v>
@@ -5243,7 +5243,7 @@
         <v>105</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>152</v>
@@ -5740,7 +5740,7 @@
         <v>102</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>154</v>
@@ -5763,7 +5763,7 @@
         <v>104</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>154</v>
@@ -5772,7 +5772,7 @@
         <v>105</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>155</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="327">
   <si>
     <t>Sezione</t>
   </si>
@@ -851,10 +851,13 @@
     <t>66,68,70,71,72,195,64,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -13005,7 +13008,7 @@
         <v>276</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>31</v>
@@ -13025,10 +13028,10 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>31</v>
@@ -13037,7 +13040,7 @@
         <v>70</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
@@ -13048,10 +13051,10 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>9</v>
@@ -13060,10 +13063,10 @@
         <v>70</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G522" s="2" t="s">
         <v>61</v>
@@ -13071,10 +13074,10 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>31</v>
@@ -13083,7 +13086,7 @@
         <v>70</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
@@ -13094,10 +13097,10 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
@@ -13106,7 +13109,7 @@
         <v>70</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13117,10 +13120,10 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>31</v>
@@ -13129,7 +13132,7 @@
         <v>59</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13140,10 +13143,10 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>31</v>
@@ -13152,7 +13155,7 @@
         <v>70</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
@@ -13163,10 +13166,10 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>31</v>
@@ -13175,7 +13178,7 @@
         <v>70</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
@@ -13186,10 +13189,10 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>31</v>
@@ -13198,7 +13201,7 @@
         <v>70</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
@@ -13209,10 +13212,10 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>31</v>
@@ -13221,7 +13224,7 @@
         <v>70</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
@@ -13232,10 +13235,10 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>31</v>
@@ -13244,7 +13247,7 @@
         <v>70</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
@@ -13255,10 +13258,10 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>31</v>
@@ -13267,7 +13270,7 @@
         <v>70</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
@@ -13278,10 +13281,10 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>31</v>
@@ -13290,7 +13293,7 @@
         <v>70</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
@@ -13301,10 +13304,10 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>31</v>
@@ -13313,7 +13316,7 @@
         <v>70</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
@@ -13324,10 +13327,10 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>31</v>
@@ -13336,7 +13339,7 @@
         <v>235</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
@@ -13347,10 +13350,10 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>31</v>
@@ -13359,7 +13362,7 @@
         <v>235</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
@@ -13370,10 +13373,10 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>9</v>
@@ -13382,7 +13385,7 @@
         <v>70</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>10</v>
@@ -13393,10 +13396,10 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>9</v>
@@ -13405,7 +13408,7 @@
         <v>70</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>10</v>
@@ -13416,71 +13419,71 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E539" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F539" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="341">
   <si>
     <t>Sezione</t>
   </si>
@@ -506,12 +506,30 @@
     <t>Pubblicazioni</t>
   </si>
   <si>
+    <t>Riduzione dei termini</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione1</t>
+  </si>
+  <si>
+    <t>idNazione</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazione</t>
+  </si>
+  <si>
     <t>Provincia</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione1</t>
-  </si>
-  <si>
     <t>idProvincia</t>
   </si>
   <si>
@@ -533,6 +551,18 @@
     <t>comune</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Data Inizio</t>
   </si>
   <si>
@@ -545,13 +575,10 @@
     <t>dataFine</t>
   </si>
   <si>
-    <t>Pubblicazioni altro comune</t>
-  </si>
-  <si>
-    <t>Riduzione dei termini</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
+    <t>Pubblicazioni altro comune o consolato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
@@ -560,9 +587,6 @@
     <t>Provincia Comune</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
-  </si>
-  <si>
     <t>Atto di Nascita dello sposo</t>
   </si>
   <si>
@@ -920,7 +944,7 @@
     <t>numeroTestimoni</t>
   </si>
   <si>
-    <t>Pubblicazioni avvenute su più comuni</t>
+    <t>Pubblicazioni avvenute su più comuni o consolati</t>
   </si>
   <si>
     <t>pubblicazioneInPiuComuni</t>
@@ -1069,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H546"/>
+  <dimension ref="A1:H554"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4634,7 +4658,7 @@
         <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>155</v>
@@ -4643,7 +4667,7 @@
         <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>156</v>
@@ -5163,7 +5187,7 @@
         <v>82</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>158</v>
@@ -5172,7 +5196,7 @@
         <v>83</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>159</v>
@@ -5692,7 +5716,7 @@
         <v>82</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>161</v>
@@ -5701,7 +5725,7 @@
         <v>83</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>162</v>
@@ -6178,10 +6202,10 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -6195,13 +6219,13 @@
         <v>163</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>168</v>
@@ -6221,10 +6245,10 @@
         <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>170</v>
@@ -6247,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>172</v>
@@ -6270,7 +6294,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>174</v>
@@ -6293,7 +6317,7 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>176</v>
@@ -6307,364 +6331,364 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -6675,19 +6699,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6698,19 +6722,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -6721,19 +6745,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6744,180 +6768,180 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6928,180 +6952,180 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>59</v>
+        <v>219</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -7112,19 +7136,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -7135,19 +7159,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -7158,19 +7182,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -7181,847 +7205,847 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
@@ -8032,19 +8056,19 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
@@ -8055,19 +8079,19 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
@@ -8078,19 +8102,19 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
@@ -8101,5277 +8125,5277 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D310" s="2" t="s">
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>276</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>218</v>
+        <v>116</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E529" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G529" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>31</v>
@@ -13380,7 +13404,7 @@
         <v>68</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
@@ -13391,22 +13415,22 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="G536" s="2" t="s">
         <v>59</v>
@@ -13414,10 +13438,10 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>31</v>
@@ -13426,7 +13450,7 @@
         <v>68</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>10</v>
@@ -13437,19 +13461,19 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>10</v>
@@ -13460,19 +13484,19 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>10</v>
@@ -13483,19 +13507,19 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
@@ -13506,19 +13530,19 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
@@ -13529,19 +13553,19 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
@@ -13552,19 +13576,19 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13575,71 +13599,255 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>326</v>
+        <v>68</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B548" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="C548" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E551" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C546" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E546" s="2" t="s">
+      <c r="F551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F546" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>328</v>
+      <c r="B552" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="352">
   <si>
     <t>Sezione</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -1120,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H602"/>
+  <dimension ref="A1:H604"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7462,53 +7468,53 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="C276" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E277" s="2" t="s">
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>232</v>
@@ -7517,7 +7523,7 @@
         <v>32</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>233</v>
@@ -7526,12 +7532,12 @@
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>234</v>
@@ -7540,7 +7546,7 @@
         <v>32</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>235</v>
@@ -7549,12 +7555,12 @@
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>236</v>
@@ -7563,7 +7569,7 @@
         <v>32</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>237</v>
@@ -7572,12 +7578,12 @@
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>238</v>
@@ -7586,7 +7592,7 @@
         <v>32</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>239</v>
@@ -7595,12 +7601,12 @@
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>240</v>
@@ -7609,7 +7615,7 @@
         <v>32</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>241</v>
@@ -7618,47 +7624,47 @@
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D283" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
@@ -7669,19 +7675,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
@@ -7692,19 +7698,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
@@ -7715,19 +7721,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7738,19 +7744,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
@@ -7761,19 +7767,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7784,19 +7790,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
@@ -7807,19 +7813,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7830,19 +7836,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7853,19 +7859,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7876,19 +7882,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7902,22 +7908,22 @@
         <v>244</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
     </row>
     <row r="296">
@@ -7925,3903 +7931,3903 @@
         <v>244</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D302" s="2" t="s">
+      <c r="E302" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E302" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D303" s="2" t="s">
+      <c r="E303" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D309" s="2" t="s">
+      <c r="E309" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E309" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D310" s="2" t="s">
+      <c r="E310" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D316" s="2" t="s">
+      <c r="E316" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D317" s="2" t="s">
+      <c r="E317" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D323" s="2" t="s">
+      <c r="E323" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D324" s="2" t="s">
+      <c r="E324" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="2" t="s">
+      <c r="E330" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D331" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="F332" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C336" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E336" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="2" t="s">
+      <c r="E361" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D362" s="2" t="s">
+      <c r="E362" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D387" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D387" s="2" t="s">
+      <c r="E387" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F387" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G387" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B388" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D388" s="2" t="s">
+      <c r="E388" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G388" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D413" s="2" t="s">
+      <c r="E413" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D414" s="2" t="s">
+      <c r="E414" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G414" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G414" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D439" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D439" s="2" t="s">
+      <c r="E439" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G439" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G439" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D440" s="2" t="s">
+      <c r="E440" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G440" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G440" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E465" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
@@ -11832,19 +11838,19 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D466" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E466" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
@@ -11855,554 +11861,554 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E467" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E468" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E469" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E470" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E471" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E472" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E473" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E474" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E475" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E477" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E478" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E479" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D480" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E480" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E481" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E482" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D483" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D483" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E483" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E484" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E485" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E486" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E487" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E488" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E489" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D490" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D490" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E490" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="491">
@@ -12410,22 +12416,22 @@
         <v>290</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D491" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E491" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F491" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G491" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="492">
@@ -12433,752 +12439,752 @@
         <v>290</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D492" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E492" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F492" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D498" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B498" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D498" s="2" t="s">
+      <c r="E498" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E498" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F498" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G498" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D499" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D499" s="2" t="s">
+      <c r="E499" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E499" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F499" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G499" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E524" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>10</v>
@@ -13189,19 +13195,19 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E525" s="2" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
@@ -13212,554 +13218,554 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E526" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D527" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E527" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E528" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E529" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E530" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D531" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E531" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D532" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E532" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E533" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E534" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E535" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E536" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E537" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E538" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E539" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E540" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E541" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E542" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D543" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E543" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D544" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C544" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E544" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D545" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C545" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E545" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D546" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B546" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E546" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D547" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E547" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D548" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B548" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E548" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D549" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B549" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C549" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E549" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="550">
@@ -13767,22 +13773,22 @@
         <v>298</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D550" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E550" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F550" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G550" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="551">
@@ -13790,789 +13796,789 @@
         <v>298</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D551" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="E551" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F551" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D557" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B557" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D557" s="2" t="s">
+      <c r="E557" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="E557" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F557" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G557" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D558" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B558" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D558" s="2" t="s">
+      <c r="E558" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="E558" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F558" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G558" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B583" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E583" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F583" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G583" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>309</v>
+        <v>125</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>32</v>
@@ -14581,7 +14587,7 @@
         <v>64</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>10</v>
@@ -14592,10 +14598,10 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>9</v>
@@ -14604,10 +14610,10 @@
         <v>64</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="G586" s="2" t="s">
         <v>55</v>
@@ -14615,19 +14621,19 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F587" s="2" t="s">
         <v>10</v>
@@ -14638,22 +14644,22 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G588" s="2" t="s">
         <v>55</v>
@@ -14661,19 +14667,19 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F589" s="2" t="s">
         <v>10</v>
@@ -14684,10 +14690,10 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>32</v>
@@ -14696,7 +14702,7 @@
         <v>64</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F590" s="2" t="s">
         <v>10</v>
@@ -14707,10 +14713,10 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>32</v>
@@ -14719,7 +14725,7 @@
         <v>64</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>10</v>
@@ -14730,10 +14736,10 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>32</v>
@@ -14742,7 +14748,7 @@
         <v>64</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>10</v>
@@ -14753,10 +14759,10 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>32</v>
@@ -14765,7 +14771,7 @@
         <v>64</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>10</v>
@@ -14776,10 +14782,10 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>32</v>
@@ -14788,7 +14794,7 @@
         <v>64</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>10</v>
@@ -14799,10 +14805,10 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>32</v>
@@ -14811,7 +14817,7 @@
         <v>64</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>10</v>
@@ -14822,19 +14828,19 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>10</v>
@@ -14845,19 +14851,19 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>10</v>
@@ -14868,19 +14874,19 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>10</v>
@@ -14891,19 +14897,19 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F599" s="2" t="s">
         <v>10</v>
@@ -14914,71 +14920,117 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F600" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B601" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C601" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F601" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B602" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B603" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C602" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D602" s="2" t="s">
+      <c r="C603" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E602" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F602" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G602" s="2" t="s">
+      <c r="B604" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D604" s="2" t="s">
         <v>345</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -14288,7 +14288,7 @@
         <v>100</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>306</v>
@@ -14311,7 +14311,7 @@
         <v>102</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>306</v>
@@ -14320,7 +14320,7 @@
         <v>103</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="G573" s="2" t="s">
         <v>308</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="354">
   <si>
     <t>Sezione</t>
   </si>
@@ -1068,6 +1068,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15033,6 +15039,29 @@
         <v>347</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
